--- a/xlsx/1789年_intext.xlsx
+++ b/xlsx/1789年_intext.xlsx
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E6%94%BF</t>
   </si>
   <si>
-    <t>寬政</t>
+    <t>宽政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2%E6%9C%884%E6%97%A5</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/6%E6%9C%8820%E6%97%A5</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
+    <t>法国大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%90%9B%E4%B8%BB%E5%88%97%E8%A1%A8</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83</t>
   </si>
   <si>
-    <t>網球</t>
+    <t>网球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%8B%C2%B7%E5%85%A7%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>雅克·內克爾</t>
+    <t>雅克·内克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/7%E6%9C%8814%E6%97%A5</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>法國國民議會</t>
+    <t>法国国民议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E5%B0%94%E8%B5%9B%E5%AE%AB</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%BE</t>
   </si>
   <si>
-    <t>鈾</t>
+    <t>铀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%92%E7%B3%BB%E5%85%83%E7%B4%A0</t>
   </si>
   <si>
-    <t>錒系元素</t>
+    <t>锕系元素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/9%E6%9C%889%E6%97%A5</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
-    <t>香港總督</t>
+    <t>香港总督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1856%E5%B9%B4</t>
@@ -473,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E7%88%BE%E5%B7%B4%E8%B5%AB</t>
   </si>
   <si>
-    <t>霍爾巴赫</t>
+    <t>霍尔巴赫</t>
   </si>
 </sst>
 </file>
